--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G518"/>
+  <dimension ref="A1:G519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12367,6 +12367,29 @@
         <v>2.575</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B519" t="n">
+        <v>1.447</v>
+      </c>
+      <c r="C519" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="D519" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E519" t="n">
+        <v>2.002</v>
+      </c>
+      <c r="F519" t="n">
+        <v>2.252</v>
+      </c>
+      <c r="G519" t="n">
+        <v>2.576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G519"/>
+  <dimension ref="A1:G520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12390,6 +12390,29 @@
         <v>2.576</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B520" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="D520" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E520" t="n">
+        <v>2.002</v>
+      </c>
+      <c r="F520" t="n">
+        <v>2.252</v>
+      </c>
+      <c r="G520" t="n">
+        <v>2.576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G520"/>
+  <dimension ref="A1:G521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12413,6 +12413,29 @@
         <v>2.576</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B521" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="C521" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="D521" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E521" t="n">
+        <v>2.001</v>
+      </c>
+      <c r="F521" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="G521" t="n">
+        <v>2.573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G521"/>
+  <dimension ref="A1:G522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12436,6 +12436,29 @@
         <v>2.573</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B522" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="C522" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="D522" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E522" t="n">
+        <v>2.001</v>
+      </c>
+      <c r="F522" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="G522" t="n">
+        <v>2.573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G522"/>
+  <dimension ref="A1:G523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12459,6 +12459,29 @@
         <v>2.573</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B523" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2.001</v>
+      </c>
+      <c r="F523" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="G523" t="n">
+        <v>2.573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G523"/>
+  <dimension ref="A1:G524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12482,6 +12482,29 @@
         <v>2.573</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B524" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C524" t="n">
+        <v>1.506</v>
+      </c>
+      <c r="D524" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="E524" t="n">
+        <v>2.004</v>
+      </c>
+      <c r="F524" t="n">
+        <v>2.264</v>
+      </c>
+      <c r="G524" t="n">
+        <v>2.536</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G524"/>
+  <dimension ref="A1:G525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12505,6 +12505,29 @@
         <v>2.536</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B525" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="D525" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="E525" t="n">
+        <v>2.004</v>
+      </c>
+      <c r="F525" t="n">
+        <v>2.264</v>
+      </c>
+      <c r="G525" t="n">
+        <v>2.536</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G525"/>
+  <dimension ref="A1:G526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12528,6 +12528,29 @@
         <v>2.536</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B526" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="D526" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E526" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="F526" t="n">
+        <v>2.246</v>
+      </c>
+      <c r="G526" t="n">
+        <v>2.564</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G526"/>
+  <dimension ref="A1:G527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12551,6 +12551,29 @@
         <v>2.564</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B527" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="C527" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="D527" t="n">
+        <v>1.679</v>
+      </c>
+      <c r="E527" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="F527" t="n">
+        <v>2.246</v>
+      </c>
+      <c r="G527" t="n">
+        <v>2.564</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G527"/>
+  <dimension ref="A1:G528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12574,6 +12574,29 @@
         <v>2.564</v>
       </c>
     </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B528" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="C528" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="D528" t="n">
+        <v>1.679</v>
+      </c>
+      <c r="E528" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="F528" t="n">
+        <v>2.246</v>
+      </c>
+      <c r="G528" t="n">
+        <v>2.564</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G528"/>
+  <dimension ref="A1:G529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12597,6 +12597,29 @@
         <v>2.564</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B529" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="C529" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="D529" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E529" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="F529" t="n">
+        <v>2.261</v>
+      </c>
+      <c r="G529" t="n">
+        <v>2.567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G529"/>
+  <dimension ref="A1:G530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12620,6 +12620,29 @@
         <v>2.567</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B530" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="C530" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="D530" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E530" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="F530" t="n">
+        <v>2.261</v>
+      </c>
+      <c r="G530" t="n">
+        <v>2.567</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G530"/>
+  <dimension ref="A1:G531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12643,6 +12643,29 @@
         <v>2.567</v>
       </c>
     </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B531" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="C531" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="D531" t="n">
+        <v>1.801</v>
+      </c>
+      <c r="E531" t="n">
+        <v>1.994</v>
+      </c>
+      <c r="F531" t="n">
+        <v>2.383</v>
+      </c>
+      <c r="G531" t="n">
+        <v>2.632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G531"/>
+  <dimension ref="A1:G532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12666,6 +12666,29 @@
         <v>2.632</v>
       </c>
     </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="D532" t="n">
+        <v>1.702</v>
+      </c>
+      <c r="E532" t="n">
+        <v>1.994</v>
+      </c>
+      <c r="F532" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="G532" t="n">
+        <v>2.632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G532"/>
+  <dimension ref="A1:G533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12689,6 +12689,29 @@
         <v>2.632</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B533" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="C533" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1.681</v>
+      </c>
+      <c r="E533" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="F533" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="G533" t="n">
+        <v>2.574</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G533"/>
+  <dimension ref="A1:G534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12712,6 +12712,29 @@
         <v>2.574</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B534" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="C534" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="D534" t="n">
+        <v>1.681</v>
+      </c>
+      <c r="E534" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="F534" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="G534" t="n">
+        <v>2.574</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G534"/>
+  <dimension ref="A1:G535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12735,6 +12735,29 @@
         <v>2.574</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B535" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C535" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="D535" t="n">
+        <v>1.681</v>
+      </c>
+      <c r="E535" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="F535" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="G535" t="n">
+        <v>2.574</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G535"/>
+  <dimension ref="A1:G536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12758,6 +12758,29 @@
         <v>2.574</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B536" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="C536" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E536" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="F536" t="n">
+        <v>2.327</v>
+      </c>
+      <c r="G536" t="n">
+        <v>2.565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G536"/>
+  <dimension ref="A1:G537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12781,6 +12781,29 @@
         <v>2.565</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B537" t="n">
+        <v>1.458</v>
+      </c>
+      <c r="C537" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="D537" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E537" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="F537" t="n">
+        <v>2.327</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2.565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G537"/>
+  <dimension ref="A1:G538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12804,6 +12804,29 @@
         <v>2.565</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B538" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1.511</v>
+      </c>
+      <c r="D538" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E538" t="n">
+        <v>2.006</v>
+      </c>
+      <c r="F538" t="n">
+        <v>2.327</v>
+      </c>
+      <c r="G538" t="n">
+        <v>2.565</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G538"/>
+  <dimension ref="A1:G539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12827,6 +12827,29 @@
         <v>2.565</v>
       </c>
     </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B539" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="C539" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E539" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F539" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G539" t="n">
+        <v>2.571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G539"/>
+  <dimension ref="A1:G540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12850,6 +12850,29 @@
         <v>2.571</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B540" t="n">
+        <v>1.497</v>
+      </c>
+      <c r="C540" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D540" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="E540" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F540" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G540" t="n">
+        <v>2.571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G540"/>
+  <dimension ref="A1:G541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12873,6 +12873,29 @@
         <v>2.571</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B541" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="E541" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="F541" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="G541" t="n">
+        <v>2.573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G541"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12896,6 +12896,29 @@
         <v>2.573</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B542" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D542" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="E542" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="F542" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2.573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12919,6 +12919,29 @@
         <v>2.573</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B543" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="C543" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="D543" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E543" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="F543" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="G543" t="n">
+        <v>2.573</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G543"/>
+  <dimension ref="A1:G544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12930,7 +12930,7 @@
         <v>1.487</v>
       </c>
       <c r="D543" t="n">
-        <v>1.75</v>
+        <v>101.99</v>
       </c>
       <c r="E543" t="n">
         <v>2.048</v>
@@ -12940,6 +12940,29 @@
       </c>
       <c r="G543" t="n">
         <v>2.573</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B544" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="C544" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="D544" t="n">
+        <v>1.714</v>
+      </c>
+      <c r="E544" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="F544" t="n">
+        <v>2.341</v>
+      </c>
+      <c r="G544" t="n">
+        <v>2.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G544"/>
+  <dimension ref="A1:G545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12965,6 +12965,29 @@
         <v>2.57</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1.485</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="D545" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="E545" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="F545" t="n">
+        <v>2.341</v>
+      </c>
+      <c r="G545" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G545"/>
+  <dimension ref="A1:G546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12988,6 +12988,29 @@
         <v>2.57</v>
       </c>
     </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B546" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="C546" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="D546" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="E546" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="F546" t="n">
+        <v>2.339</v>
+      </c>
+      <c r="G546" t="n">
+        <v>2.543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G546"/>
+  <dimension ref="A1:G547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13011,6 +13011,29 @@
         <v>2.543</v>
       </c>
     </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B547" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="C547" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="E547" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="F547" t="n">
+        <v>2.339</v>
+      </c>
+      <c r="G547" t="n">
+        <v>2.543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G547"/>
+  <dimension ref="A1:G548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13034,6 +13034,29 @@
         <v>2.543</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B548" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="D548" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E548" t="n">
+        <v>2.077</v>
+      </c>
+      <c r="F548" t="n">
+        <v>2.339</v>
+      </c>
+      <c r="G548" t="n">
+        <v>2.543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G548"/>
+  <dimension ref="A1:G549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13057,6 +13057,29 @@
         <v>2.543</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B549" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="C549" t="n">
+        <v>1.477</v>
+      </c>
+      <c r="D549" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="E549" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="F549" t="n">
+        <v>2.339</v>
+      </c>
+      <c r="G549" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G549"/>
+  <dimension ref="A1:G550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13080,6 +13080,29 @@
         <v>2.57</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B550" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="C550" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D550" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E550" t="n">
+        <v>2.081</v>
+      </c>
+      <c r="F550" t="n">
+        <v>2.339</v>
+      </c>
+      <c r="G550" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G550"/>
+  <dimension ref="A1:G551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13103,6 +13103,29 @@
         <v>2.57</v>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B551" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="C551" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="D551" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E551" t="n">
+        <v>1.968</v>
+      </c>
+      <c r="F551" t="n">
+        <v>2.309</v>
+      </c>
+      <c r="G551" t="n">
+        <v>2.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G551"/>
+  <dimension ref="A1:G552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13126,6 +13126,29 @@
         <v>2.575</v>
       </c>
     </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B552" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="D552" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="E552" t="n">
+        <v>1.968</v>
+      </c>
+      <c r="F552" t="n">
+        <v>2.309</v>
+      </c>
+      <c r="G552" t="n">
+        <v>2.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G552"/>
+  <dimension ref="A1:G553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13149,6 +13149,29 @@
         <v>2.575</v>
       </c>
     </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B553" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="C553" t="n">
+        <v>1.486</v>
+      </c>
+      <c r="D553" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="E553" t="n">
+        <v>1.968</v>
+      </c>
+      <c r="F553" t="n">
+        <v>2.309</v>
+      </c>
+      <c r="G553" t="n">
+        <v>2.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G553"/>
+  <dimension ref="A1:G554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13172,6 +13172,29 @@
         <v>2.575</v>
       </c>
     </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B554" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="C554" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D554" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="E554" t="n">
+        <v>2</v>
+      </c>
+      <c r="F554" t="n">
+        <v>2.359</v>
+      </c>
+      <c r="G554" t="n">
+        <v>2.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G554"/>
+  <dimension ref="A1:G555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13195,6 +13195,29 @@
         <v>2.575</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="B555" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="C555" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="D555" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="E555" t="n">
+        <v>2</v>
+      </c>
+      <c r="F555" t="n">
+        <v>2.359</v>
+      </c>
+      <c r="G555" t="n">
+        <v>2.575</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G555"/>
+  <dimension ref="A1:G556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13218,6 +13218,29 @@
         <v>2.575</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B556" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="C556" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="D556" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E556" t="n">
+        <v>2.076</v>
+      </c>
+      <c r="F556" t="n">
+        <v>2.354</v>
+      </c>
+      <c r="G556" t="n">
+        <v>2.572</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G556"/>
+  <dimension ref="A1:G557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13241,6 +13241,29 @@
         <v>2.572</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B557" t="n">
+        <v>1.457</v>
+      </c>
+      <c r="C557" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="D557" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="E557" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="F557" t="n">
+        <v>2.358</v>
+      </c>
+      <c r="G557" t="n">
+        <v>2.576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G557"/>
+  <dimension ref="A1:G558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13264,6 +13264,29 @@
         <v>2.576</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B558" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="C558" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="D558" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="E558" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="F558" t="n">
+        <v>2.358</v>
+      </c>
+      <c r="G558" t="n">
+        <v>2.576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G558"/>
+  <dimension ref="A1:G559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13287,6 +13287,29 @@
         <v>2.576</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B559" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="C559" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="D559" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E559" t="n">
+        <v>2.041</v>
+      </c>
+      <c r="F559" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="G559" t="n">
+        <v>2.576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G559"/>
+  <dimension ref="A1:G560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13310,6 +13310,29 @@
         <v>2.576</v>
       </c>
     </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B560" t="n">
+        <v>1.469</v>
+      </c>
+      <c r="C560" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="D560" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="E560" t="n">
+        <v>2.041</v>
+      </c>
+      <c r="F560" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="G560" t="n">
+        <v>2.576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G560"/>
+  <dimension ref="A1:G561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13333,6 +13333,29 @@
         <v>2.576</v>
       </c>
     </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B561" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="C561" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="D561" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="E561" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="F561" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="G561" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G561"/>
+  <dimension ref="A1:G562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13356,6 +13356,29 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B562" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="C562" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="D562" t="n">
+        <v>1.761</v>
+      </c>
+      <c r="E562" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="F562" t="n">
+        <v>2.345</v>
+      </c>
+      <c r="G562" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G562"/>
+  <dimension ref="A1:G563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13379,6 +13379,29 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B563" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="C563" t="n">
+        <v>1.504</v>
+      </c>
+      <c r="D563" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="E563" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="F563" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G563" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G563"/>
+  <dimension ref="A1:G564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13402,6 +13402,29 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B564" t="n">
+        <v>1.487</v>
+      </c>
+      <c r="C564" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="D564" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E564" t="n">
+        <v>2.073</v>
+      </c>
+      <c r="F564" t="n">
+        <v>2.441</v>
+      </c>
+      <c r="G564" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G564"/>
+  <dimension ref="A1:G565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13425,6 +13425,29 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B565" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="C565" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D565" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E565" t="n">
+        <v>2.073</v>
+      </c>
+      <c r="F565" t="n">
+        <v>2.441</v>
+      </c>
+      <c r="G565" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G565"/>
+  <dimension ref="A1:G566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13448,6 +13448,29 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B566" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="C566" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="D566" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E566" t="n">
+        <v>2.073</v>
+      </c>
+      <c r="F566" t="n">
+        <v>2.441</v>
+      </c>
+      <c r="G566" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G566"/>
+  <dimension ref="A1:G567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13471,6 +13471,29 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B567" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="C567" t="n">
+        <v>1.493</v>
+      </c>
+      <c r="D567" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E567" t="n">
+        <v>2.073</v>
+      </c>
+      <c r="F567" t="n">
+        <v>2.441</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G567"/>
+  <dimension ref="A1:G568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13494,6 +13494,29 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B568" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="C568" t="n">
+        <v>1.492</v>
+      </c>
+      <c r="D568" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E568" t="n">
+        <v>2.073</v>
+      </c>
+      <c r="F568" t="n">
+        <v>2.441</v>
+      </c>
+      <c r="G568" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G568"/>
+  <dimension ref="A1:G569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13517,6 +13517,29 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B569" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C569" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="D569" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E569" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="F569" t="n">
+        <v>2.441</v>
+      </c>
+      <c r="G569" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G569"/>
+  <dimension ref="A1:G570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13540,6 +13540,29 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B570" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="C570" t="n">
+        <v>1.516</v>
+      </c>
+      <c r="D570" t="n">
+        <v>1.729</v>
+      </c>
+      <c r="E570" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="F570" t="n">
+        <v>2.441</v>
+      </c>
+      <c r="G570" t="n">
+        <v>2.577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G570"/>
+  <dimension ref="A1:G571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13563,6 +13563,29 @@
         <v>2.577</v>
       </c>
     </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B571" t="n">
+        <v>1.546</v>
+      </c>
+      <c r="C571" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D571" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E571" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="F571" t="n">
+        <v>2.577</v>
+      </c>
+      <c r="G571" t="n">
+        <v>2.584</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G571"/>
+  <dimension ref="A1:G572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13586,6 +13586,29 @@
         <v>2.584</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B572" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="C572" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D572" t="n">
+        <v>1.883</v>
+      </c>
+      <c r="E572" t="n">
+        <v>2.064</v>
+      </c>
+      <c r="F572" t="n">
+        <v>2.365</v>
+      </c>
+      <c r="G572" t="n">
+        <v>2.589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G572"/>
+  <dimension ref="A1:G573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13609,6 +13609,29 @@
         <v>2.589</v>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B573" t="n">
+        <v>1.426</v>
+      </c>
+      <c r="C573" t="n">
+        <v>1.488</v>
+      </c>
+      <c r="D573" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="E573" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="F573" t="n">
+        <v>2.421</v>
+      </c>
+      <c r="G573" t="n">
+        <v>2.589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G573"/>
+  <dimension ref="A1:G574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13632,6 +13632,29 @@
         <v>2.589</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B574" t="n">
+        <v>1.422</v>
+      </c>
+      <c r="C574" t="n">
+        <v>1.467</v>
+      </c>
+      <c r="D574" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="E574" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="F574" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="G574" t="n">
+        <v>2.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G574"/>
+  <dimension ref="A1:G575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13655,6 +13655,29 @@
         <v>2.588</v>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B575" t="n">
+        <v>1.418</v>
+      </c>
+      <c r="C575" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="D575" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="E575" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="F575" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="G575" t="n">
+        <v>2.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G575"/>
+  <dimension ref="A1:G576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13678,6 +13678,29 @@
         <v>2.588</v>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B576" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1.559</v>
+      </c>
+      <c r="D576" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E576" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F576" t="n">
+        <v>2.332</v>
+      </c>
+      <c r="G576" t="n">
+        <v>2.558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G576"/>
+  <dimension ref="A1:G577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13701,6 +13701,29 @@
         <v>2.558</v>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B577" t="n">
+        <v>1.597</v>
+      </c>
+      <c r="C577" t="n">
+        <v>1.599</v>
+      </c>
+      <c r="D577" t="n">
+        <v>1.907</v>
+      </c>
+      <c r="E577" t="n">
+        <v>2.069</v>
+      </c>
+      <c r="F577" t="n">
+        <v>2.359</v>
+      </c>
+      <c r="G577" t="n">
+        <v>2.581</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G577"/>
+  <dimension ref="A1:G578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13724,6 +13724,29 @@
         <v>2.581</v>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B578" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1.576</v>
+      </c>
+      <c r="D578" t="n">
+        <v>1.892</v>
+      </c>
+      <c r="E578" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="F578" t="n">
+        <v>2.378</v>
+      </c>
+      <c r="G578" t="n">
+        <v>2.589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G578"/>
+  <dimension ref="A1:G579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13747,6 +13747,29 @@
         <v>2.589</v>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B579" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="C579" t="n">
+        <v>1.591</v>
+      </c>
+      <c r="D579" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="E579" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="F579" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="G579" t="n">
+        <v>2.589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G579"/>
+  <dimension ref="A1:G580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13770,6 +13770,29 @@
         <v>2.589</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B580" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1.592</v>
+      </c>
+      <c r="D580" t="n">
+        <v>1.734</v>
+      </c>
+      <c r="E580" t="n">
+        <v>1.988</v>
+      </c>
+      <c r="F580" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="G580" t="n">
+        <v>2.589</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G580"/>
+  <dimension ref="A1:G581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13793,6 +13793,29 @@
         <v>2.589</v>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B581" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1.607</v>
+      </c>
+      <c r="D581" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="E581" t="n">
+        <v>2.113</v>
+      </c>
+      <c r="F581" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="G581" t="n">
+        <v>2.607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G581"/>
+  <dimension ref="A1:G582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13816,6 +13816,29 @@
         <v>2.607</v>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B582" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="C582" t="n">
+        <v>1.608</v>
+      </c>
+      <c r="D582" t="n">
+        <v>1.868</v>
+      </c>
+      <c r="E582" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="F582" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="G582" t="n">
+        <v>2.562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G582"/>
+  <dimension ref="A1:G583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13839,6 +13839,29 @@
         <v>2.562</v>
       </c>
     </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B583" t="n">
+        <v>1.444</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="D583" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="E583" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="F583" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G583" t="n">
+        <v>2.592</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G583"/>
+  <dimension ref="A1:G584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13862,6 +13862,29 @@
         <v>2.592</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B584" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="C584" t="n">
+        <v>1.592</v>
+      </c>
+      <c r="D584" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E584" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="F584" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G584" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G584"/>
+  <dimension ref="A1:G585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13885,6 +13885,29 @@
         <v>2.57</v>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B585" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C585" t="n">
+        <v>1.592</v>
+      </c>
+      <c r="D585" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E585" t="n">
+        <v>2.087</v>
+      </c>
+      <c r="F585" t="n">
+        <v>2.367</v>
+      </c>
+      <c r="G585" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G585"/>
+  <dimension ref="A1:G586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13908,6 +13908,29 @@
         <v>2.57</v>
       </c>
     </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B586" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="C586" t="n">
+        <v>1.594</v>
+      </c>
+      <c r="D586" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E586" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="F586" t="n">
+        <v>2.367</v>
+      </c>
+      <c r="G586" t="n">
+        <v>2.601</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G586"/>
+  <dimension ref="A1:G587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13931,6 +13931,29 @@
         <v>2.601</v>
       </c>
     </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B587" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="D587" t="n">
+        <v>1.828</v>
+      </c>
+      <c r="E587" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="F587" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="G587" t="n">
+        <v>2.607</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G587"/>
+  <dimension ref="A1:G589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13954,6 +13954,52 @@
         <v>2.607</v>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B588" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D588" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E588" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F588" t="n">
+        <v>2.378</v>
+      </c>
+      <c r="G588" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B589" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D589" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="E589" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="F589" t="n">
+        <v>2.378</v>
+      </c>
+      <c r="G589" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G589"/>
+  <dimension ref="A1:G590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14000,6 +14000,29 @@
         <v>2.58</v>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B590" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="C590" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D590" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="E590" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="F590" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="G590" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G590"/>
+  <dimension ref="A1:G591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14023,6 +14023,29 @@
         <v>2.58</v>
       </c>
     </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B591" t="n">
+        <v>1.518</v>
+      </c>
+      <c r="C591" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="D591" t="n">
+        <v>1.879</v>
+      </c>
+      <c r="E591" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="F591" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="G591" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G591"/>
+  <dimension ref="A1:G592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14046,6 +14046,29 @@
         <v>2.58</v>
       </c>
     </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B592" t="n">
+        <v>1.588</v>
+      </c>
+      <c r="C592" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D592" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="E592" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F592" t="n">
+        <v>2.372</v>
+      </c>
+      <c r="G592" t="n">
+        <v>2.583</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G592"/>
+  <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14069,6 +14069,52 @@
         <v>2.583</v>
       </c>
     </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B593" t="n">
+        <v>1.446</v>
+      </c>
+      <c r="C593" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D593" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E593" t="n">
+        <v>2.163</v>
+      </c>
+      <c r="F593" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="G593" t="n">
+        <v>2.655</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B594" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1.604</v>
+      </c>
+      <c r="D594" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="E594" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="F594" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="G594" t="n">
+        <v>2.641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G594"/>
+  <dimension ref="A1:G595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14115,6 +14115,29 @@
         <v>2.641</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B595" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1.604</v>
+      </c>
+      <c r="D595" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="E595" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="F595" t="n">
+        <v>2.376</v>
+      </c>
+      <c r="G595" t="n">
+        <v>2.641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G595"/>
+  <dimension ref="A1:G596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14138,6 +14138,29 @@
         <v>2.641</v>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B596" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="C596" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="D596" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="E596" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F596" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="G596" t="n">
+        <v>2.641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G596"/>
+  <dimension ref="A1:G597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14161,6 +14161,29 @@
         <v>2.641</v>
       </c>
     </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B597" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="C597" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="D597" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="E597" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="F597" t="n">
+        <v>2.377</v>
+      </c>
+      <c r="G597" t="n">
+        <v>2.655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G597"/>
+  <dimension ref="A1:G600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14184,6 +14184,75 @@
         <v>2.655</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B598" t="n">
+        <v>1.572</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1.639</v>
+      </c>
+      <c r="D598" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="E598" t="n">
+        <v>2.234</v>
+      </c>
+      <c r="F598" t="n">
+        <v>2.384</v>
+      </c>
+      <c r="G598" t="n">
+        <v>2.602</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B599" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="C599" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="D599" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E599" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="F599" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="G599" t="n">
+        <v>2.602</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B600" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="C600" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="D600" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="E600" t="n">
+        <v>2.095</v>
+      </c>
+      <c r="F600" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="G600" t="n">
+        <v>2.602</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G600"/>
+  <dimension ref="A1:G601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14253,6 +14253,29 @@
         <v>2.602</v>
       </c>
     </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B601" t="n">
+        <v>1.586</v>
+      </c>
+      <c r="C601" t="n">
+        <v>1.641</v>
+      </c>
+      <c r="D601" t="n">
+        <v>1.905</v>
+      </c>
+      <c r="E601" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="F601" t="n">
+        <v>2.393</v>
+      </c>
+      <c r="G601" t="n">
+        <v>2.623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G601"/>
+  <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14276,6 +14276,29 @@
         <v>2.623</v>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B602" t="n">
+        <v>1.546</v>
+      </c>
+      <c r="C602" t="n">
+        <v>1.641</v>
+      </c>
+      <c r="D602" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E602" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F602" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="G602" t="n">
+        <v>2.663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G602"/>
+  <dimension ref="A1:G603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14299,6 +14299,29 @@
         <v>2.663</v>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B603" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="C603" t="n">
+        <v>1.624</v>
+      </c>
+      <c r="D603" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E603" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="F603" t="n">
+        <v>2.394</v>
+      </c>
+      <c r="G603" t="n">
+        <v>2.624</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G603"/>
+  <dimension ref="A1:G604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14322,6 +14322,29 @@
         <v>2.624</v>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B604" t="n">
+        <v>1.541</v>
+      </c>
+      <c r="C604" t="n">
+        <v>1.607</v>
+      </c>
+      <c r="D604" t="n">
+        <v>1.915</v>
+      </c>
+      <c r="E604" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="F604" t="n">
+        <v>2.394</v>
+      </c>
+      <c r="G604" t="n">
+        <v>2.663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G604"/>
+  <dimension ref="A1:G605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14345,6 +14345,29 @@
         <v>2.663</v>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B605" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="C605" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="D605" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="E605" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="F605" t="n">
+        <v>2.394</v>
+      </c>
+      <c r="G605" t="n">
+        <v>2.663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G605"/>
+  <dimension ref="A1:G606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14368,6 +14368,29 @@
         <v>2.663</v>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B606" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="C606" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="D606" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="E606" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F606" t="n">
+        <v>2.389</v>
+      </c>
+      <c r="G606" t="n">
+        <v>2.649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G606"/>
+  <dimension ref="A1:G607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14391,6 +14391,29 @@
         <v>2.649</v>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B607" t="n">
+        <v>1.589</v>
+      </c>
+      <c r="C607" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="D607" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="E607" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="F607" t="n">
+        <v>2.389</v>
+      </c>
+      <c r="G607" t="n">
+        <v>2.634</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G607"/>
+  <dimension ref="A1:G608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14414,6 +14414,29 @@
         <v>2.634</v>
       </c>
     </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B608" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="C608" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="D608" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="E608" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="F608" t="n">
+        <v>2.342</v>
+      </c>
+      <c r="G608" t="n">
+        <v>2.655</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G608"/>
+  <dimension ref="A1:G609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14437,6 +14437,29 @@
         <v>2.655</v>
       </c>
     </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B609" t="n">
+        <v>1.536</v>
+      </c>
+      <c r="C609" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="D609" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E609" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="F609" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G609" t="n">
+        <v>2.641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G609"/>
+  <dimension ref="A1:G610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14460,6 +14460,29 @@
         <v>2.641</v>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B610" t="n">
+        <v>1.559</v>
+      </c>
+      <c r="C610" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="D610" t="n">
+        <v>1.886</v>
+      </c>
+      <c r="E610" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="F610" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G610" t="n">
+        <v>2.641</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G610"/>
+  <dimension ref="A1:G611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14483,6 +14483,29 @@
         <v>2.641</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B611" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="C611" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="D611" t="n">
+        <v>1.939</v>
+      </c>
+      <c r="E611" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="F611" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="G611" t="n">
+        <v>2.619</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G611"/>
+  <dimension ref="A1:G612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14506,6 +14506,29 @@
         <v>2.619</v>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B612" t="n">
+        <v>1.551</v>
+      </c>
+      <c r="C612" t="n">
+        <v>1.638</v>
+      </c>
+      <c r="D612" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="E612" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="F612" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="G612" t="n">
+        <v>2.664</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G612"/>
+  <dimension ref="A1:G613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14529,6 +14529,29 @@
         <v>2.664</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B613" t="n">
+        <v>1.539</v>
+      </c>
+      <c r="C613" t="n">
+        <v>1.639</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E613" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="F613" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="G613" t="n">
+        <v>2.665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G613"/>
+  <dimension ref="A1:G614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14552,6 +14552,29 @@
         <v>2.665</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B614" t="n">
+        <v>1.528</v>
+      </c>
+      <c r="C614" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D614" t="n">
+        <v>1.889</v>
+      </c>
+      <c r="E614" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="F614" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="G614" t="n">
+        <v>2.665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G614"/>
+  <dimension ref="A1:G615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14575,6 +14575,29 @@
         <v>2.665</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B615" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="C615" t="n">
+        <v>1.621</v>
+      </c>
+      <c r="D615" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E615" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="F615" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="G615" t="n">
+        <v>2.665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G615"/>
+  <dimension ref="A1:G616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14598,6 +14598,29 @@
         <v>2.665</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B616" t="n">
+        <v>1.556</v>
+      </c>
+      <c r="C616" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="D616" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E616" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="F616" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="G616" t="n">
+        <v>2.665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G616"/>
+  <dimension ref="A1:G617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14621,6 +14621,29 @@
         <v>2.665</v>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B617" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="C617" t="n">
+        <v>1.633</v>
+      </c>
+      <c r="D617" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="E617" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="F617" t="n">
+        <v>2.382</v>
+      </c>
+      <c r="G617" t="n">
+        <v>2.665</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G617"/>
+  <dimension ref="A1:G618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14644,6 +14644,29 @@
         <v>2.665</v>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B618" t="n">
+        <v>1.552</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1.633</v>
+      </c>
+      <c r="D618" t="n">
+        <v>1.982</v>
+      </c>
+      <c r="E618" t="n">
+        <v>2.169</v>
+      </c>
+      <c r="F618" t="n">
+        <v>2.425</v>
+      </c>
+      <c r="G618" t="n">
+        <v>2.678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G618"/>
+  <dimension ref="A1:G619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14667,6 +14667,29 @@
         <v>2.678</v>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B619" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="C619" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="E619" t="n">
+        <v>2.181</v>
+      </c>
+      <c r="F619" t="n">
+        <v>2.461</v>
+      </c>
+      <c r="G619" t="n">
+        <v>2.678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G619"/>
+  <dimension ref="A1:G620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14690,6 +14690,29 @@
         <v>2.678</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B620" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="D620" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="E620" t="n">
+        <v>2.181</v>
+      </c>
+      <c r="F620" t="n">
+        <v>2.461</v>
+      </c>
+      <c r="G620" t="n">
+        <v>2.678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G620"/>
+  <dimension ref="A1:G621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14713,6 +14713,29 @@
         <v>2.678</v>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B621" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1.695</v>
+      </c>
+      <c r="D621" t="n">
+        <v>1.999</v>
+      </c>
+      <c r="E621" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="F621" t="n">
+        <v>2.367</v>
+      </c>
+      <c r="G621" t="n">
+        <v>2.679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G621"/>
+  <dimension ref="A1:G623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14736,6 +14736,52 @@
         <v>2.679</v>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B622" t="n">
+        <v>1.558</v>
+      </c>
+      <c r="C622" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="D622" t="n">
+        <v>2.004</v>
+      </c>
+      <c r="E622" t="n">
+        <v>2.238</v>
+      </c>
+      <c r="F622" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="G622" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B623" t="n">
+        <v>1.546</v>
+      </c>
+      <c r="C623" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="D623" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E623" t="n">
+        <v>2.279</v>
+      </c>
+      <c r="F623" t="n">
+        <v>2.436</v>
+      </c>
+      <c r="G623" t="n">
+        <v>2.679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G623"/>
+  <dimension ref="A1:G624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14782,6 +14782,29 @@
         <v>2.679</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B624" t="n">
+        <v>1.574</v>
+      </c>
+      <c r="C624" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="D624" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E624" t="n">
+        <v>2.141</v>
+      </c>
+      <c r="F624" t="n">
+        <v>2.365</v>
+      </c>
+      <c r="G624" t="n">
+        <v>2.679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G624"/>
+  <dimension ref="A1:G625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14805,6 +14805,29 @@
         <v>2.679</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B625" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="C625" t="n">
+        <v>1.678</v>
+      </c>
+      <c r="D625" t="n">
+        <v>1.904</v>
+      </c>
+      <c r="E625" t="n">
+        <v>2.141</v>
+      </c>
+      <c r="F625" t="n">
+        <v>2.365</v>
+      </c>
+      <c r="G625" t="n">
+        <v>2.679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G625"/>
+  <dimension ref="A1:G626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14828,6 +14828,29 @@
         <v>2.679</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B626" t="n">
+        <v>1.565</v>
+      </c>
+      <c r="C626" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="D626" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E626" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="F626" t="n">
+        <v>2.436</v>
+      </c>
+      <c r="G626" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G626"/>
+  <dimension ref="A1:G627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14851,6 +14851,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B627" t="n">
+        <v>1.552</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D627" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="E627" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="F627" t="n">
+        <v>2.436</v>
+      </c>
+      <c r="G627" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G627"/>
+  <dimension ref="A1:G628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14874,6 +14874,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B628" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1.661</v>
+      </c>
+      <c r="D628" t="n">
+        <v>1.983</v>
+      </c>
+      <c r="E628" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="F628" t="n">
+        <v>2.437</v>
+      </c>
+      <c r="G628" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G628"/>
+  <dimension ref="A1:G629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14897,6 +14897,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="629">
+      <c r="A629" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B629" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1.661</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="E629" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="F629" t="n">
+        <v>2.424</v>
+      </c>
+      <c r="G629" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G629"/>
+  <dimension ref="A1:G630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14920,6 +14920,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B630" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1.661</v>
+      </c>
+      <c r="D630" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="E630" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="F630" t="n">
+        <v>2.424</v>
+      </c>
+      <c r="G630" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G630"/>
+  <dimension ref="A1:G631"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14943,6 +14943,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="631">
+      <c r="A631" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B631" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="D631" t="n">
+        <v>1.926</v>
+      </c>
+      <c r="E631" t="n">
+        <v>2.162</v>
+      </c>
+      <c r="F631" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="G631" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G631"/>
+  <dimension ref="A1:G632"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14966,6 +14966,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="632">
+      <c r="A632" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B632" t="n">
+        <v>1.615</v>
+      </c>
+      <c r="C632" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="D632" t="n">
+        <v>2.075</v>
+      </c>
+      <c r="E632" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="F632" t="n">
+        <v>2.456</v>
+      </c>
+      <c r="G632" t="n">
+        <v>2.678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G632"/>
+  <dimension ref="A1:G633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14989,6 +14989,29 @@
         <v>2.678</v>
       </c>
     </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B633" t="n">
+        <v>1.602</v>
+      </c>
+      <c r="C633" t="n">
+        <v>1.676</v>
+      </c>
+      <c r="D633" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="E633" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="F633" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="G633" t="n">
+        <v>2.678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G633"/>
+  <dimension ref="A1:G634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15012,6 +15012,29 @@
         <v>2.678</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B634" t="n">
+        <v>1.587</v>
+      </c>
+      <c r="C634" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="D634" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E634" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="F634" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="G634" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G634"/>
+  <dimension ref="A1:G635"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15035,6 +15035,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B635" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="C635" t="n">
+        <v>1.722</v>
+      </c>
+      <c r="D635" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="E635" t="n">
+        <v>2.098</v>
+      </c>
+      <c r="F635" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="G635" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G635"/>
+  <dimension ref="A1:G637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15058,6 +15058,52 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B636" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="C636" t="n">
+        <v>1.681</v>
+      </c>
+      <c r="D636" t="n">
+        <v>1.901</v>
+      </c>
+      <c r="E636" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="F636" t="n">
+        <v>2.384</v>
+      </c>
+      <c r="G636" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B637" t="n">
+        <v>1.562</v>
+      </c>
+      <c r="C637" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="D637" t="n">
+        <v>1.973</v>
+      </c>
+      <c r="E637" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="F637" t="n">
+        <v>2.384</v>
+      </c>
+      <c r="G637" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G637"/>
+  <dimension ref="A1:G638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15104,6 +15104,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B638" t="n">
+        <v>1.589</v>
+      </c>
+      <c r="C638" t="n">
+        <v>1.716</v>
+      </c>
+      <c r="D638" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="E638" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="F638" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="G638" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G638"/>
+  <dimension ref="A1:G639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15127,6 +15127,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B639" t="n">
+        <v>1.587</v>
+      </c>
+      <c r="C639" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="D639" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E639" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="F639" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="G639" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G639"/>
+  <dimension ref="A1:G640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15150,6 +15150,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B640" t="n">
+        <v>1.584</v>
+      </c>
+      <c r="C640" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="D640" t="n">
+        <v>1.909</v>
+      </c>
+      <c r="E640" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="F640" t="n">
+        <v>2.386</v>
+      </c>
+      <c r="G640" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G640"/>
+  <dimension ref="A1:G641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15173,6 +15173,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B641" t="n">
+        <v>1.617</v>
+      </c>
+      <c r="C641" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D641" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="E641" t="n">
+        <v>2.169</v>
+      </c>
+      <c r="F641" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="G641" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G641"/>
+  <dimension ref="A1:G642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15196,6 +15196,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B642" t="n">
+        <v>1.655</v>
+      </c>
+      <c r="C642" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="D642" t="n">
+        <v>1.921</v>
+      </c>
+      <c r="E642" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="F642" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="G642" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G642"/>
+  <dimension ref="A1:G643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15219,6 +15219,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B643" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="C643" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D643" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="E643" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="F643" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="G643" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G643"/>
+  <dimension ref="A1:G644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15242,6 +15242,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B644" t="n">
+        <v>1.691</v>
+      </c>
+      <c r="C644" t="n">
+        <v>1.773</v>
+      </c>
+      <c r="D644" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="E644" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="F644" t="n">
+        <v>2.355</v>
+      </c>
+      <c r="G644" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G644"/>
+  <dimension ref="A1:G645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15265,6 +15265,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B645" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="C645" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D645" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="E645" t="n">
+        <v>2.171</v>
+      </c>
+      <c r="F645" t="n">
+        <v>2.355</v>
+      </c>
+      <c r="G645" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G645"/>
+  <dimension ref="A1:G646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15288,6 +15288,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B646" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1.829</v>
+      </c>
+      <c r="D646" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="E646" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="F646" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="G646" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G646"/>
+  <dimension ref="A1:G647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15311,6 +15311,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B647" t="n">
+        <v>1.727</v>
+      </c>
+      <c r="C647" t="n">
+        <v>1.882</v>
+      </c>
+      <c r="D647" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="E647" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="F647" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="G647" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G647"/>
+  <dimension ref="A1:G648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15334,6 +15334,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B648" t="n">
+        <v>1.725</v>
+      </c>
+      <c r="C648" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="D648" t="n">
+        <v>2.007</v>
+      </c>
+      <c r="E648" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F648" t="n">
+        <v>2.362</v>
+      </c>
+      <c r="G648" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G648"/>
+  <dimension ref="A1:G649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15357,6 +15357,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B649" t="n">
+        <v>1.747</v>
+      </c>
+      <c r="C649" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D649" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="E649" t="n">
+        <v>2.131</v>
+      </c>
+      <c r="F649" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="G649" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G649"/>
+  <dimension ref="A1:G650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15380,6 +15380,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B650" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="C650" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D650" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="E650" t="n">
+        <v>2.131</v>
+      </c>
+      <c r="F650" t="n">
+        <v>2.356</v>
+      </c>
+      <c r="G650" t="n">
+        <v>2.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G650"/>
+  <dimension ref="A1:G651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15403,6 +15403,29 @@
         <v>2.681</v>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B651" t="n">
+        <v>1.742</v>
+      </c>
+      <c r="C651" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="D651" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="E651" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="F651" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G651" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G651"/>
+  <dimension ref="A1:G652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15426,6 +15426,29 @@
         <v>2.68</v>
       </c>
     </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B652" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="C652" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="D652" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="E652" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="F652" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G652" t="n">
+        <v>2.679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G652"/>
+  <dimension ref="A1:G653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15449,6 +15449,29 @@
         <v>2.679</v>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B653" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="C653" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="D653" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="E653" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="F653" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G653" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G653"/>
+  <dimension ref="A1:G654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15472,6 +15472,29 @@
         <v>2.68</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B654" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="C654" t="n">
+        <v>1.856</v>
+      </c>
+      <c r="D654" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="E654" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="F654" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G654" t="n">
+        <v>2.679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G654"/>
+  <dimension ref="A1:G655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15495,6 +15495,29 @@
         <v>2.679</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B655" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="C655" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="D655" t="n">
+        <v>2.229</v>
+      </c>
+      <c r="E655" t="n">
+        <v>2.146</v>
+      </c>
+      <c r="F655" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G655" t="n">
+        <v>2.679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G655"/>
+  <dimension ref="A1:G656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15518,6 +15518,29 @@
         <v>2.679</v>
       </c>
     </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B656" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C656" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D656" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="E656" t="n">
+        <v>2.152</v>
+      </c>
+      <c r="F656" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G656" t="n">
+        <v>2.679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G656"/>
+  <dimension ref="A1:G657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15541,6 +15541,29 @@
         <v>2.679</v>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B657" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C657" t="n">
+        <v>1.927</v>
+      </c>
+      <c r="D657" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E657" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F657" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G657" t="n">
+        <v>2.614</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G657"/>
+  <dimension ref="A1:G659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15564,6 +15564,52 @@
         <v>2.614</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B658" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="C658" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="D658" t="n">
+        <v>2.103</v>
+      </c>
+      <c r="E658" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F658" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G658" t="n">
+        <v>2.614</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B659" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C659" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="D659" t="n">
+        <v>2.252</v>
+      </c>
+      <c r="E659" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F659" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G659" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G659"/>
+  <dimension ref="A1:G660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15610,6 +15610,29 @@
         <v>2.66</v>
       </c>
     </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B660" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C660" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="D660" t="n">
+        <v>2.253</v>
+      </c>
+      <c r="E660" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F660" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G660" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G660"/>
+  <dimension ref="A1:G662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15633,6 +15633,52 @@
         <v>2.66</v>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B661" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="C661" t="n">
+        <v>1.953</v>
+      </c>
+      <c r="D661" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="E661" t="n">
+        <v>2.151</v>
+      </c>
+      <c r="F661" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G661" t="n">
+        <v>2.706</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B662" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C662" t="n">
+        <v>1.952</v>
+      </c>
+      <c r="D662" t="n">
+        <v>2.136</v>
+      </c>
+      <c r="E662" t="n">
+        <v>2.151</v>
+      </c>
+      <c r="F662" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G662" t="n">
+        <v>2.706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Morocco.xlsx
+++ b/Bonds_Morocco.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G662"/>
+  <dimension ref="A1:G663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15679,6 +15679,29 @@
         <v>2.706</v>
       </c>
     </row>
+    <row r="663">
+      <c r="A663" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B663" t="n">
+        <v>1.806</v>
+      </c>
+      <c r="C663" t="n">
+        <v>1.932</v>
+      </c>
+      <c r="D663" t="n">
+        <v>2.194</v>
+      </c>
+      <c r="E663" t="n">
+        <v>2.254</v>
+      </c>
+      <c r="F663" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="G663" t="n">
+        <v>2.706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
